--- a/Back-End/output.xlsx
+++ b/Back-End/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>ε</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -473,14 +478,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -492,13 +506,14 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>ACC</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,14 +526,19 @@
           <t>S6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -535,12 +555,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -565,8 +596,13 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -576,13 +612,14 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -592,18 +629,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S6</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -614,13 +662,14 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -630,21 +679,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>S4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -652,15 +708,91 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Back-End/output.xlsx
+++ b/Back-End/output.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ε</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>a</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>$</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>S4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>R5</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -526,15 +526,15 @@
           <t>S6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>S7</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>R5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -560,12 +560,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>S4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>R5</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>S4</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>R5</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -689,12 +689,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>S4</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>R5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>

--- a/Back-End/output.xlsx
+++ b/Back-End/output.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>ε</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>$</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ε</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -505,12 +505,12 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>ACC</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -526,12 +526,12 @@
           <t>S6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>S7</t>
@@ -611,12 +611,12 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -661,12 +661,12 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -738,12 +738,12 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -755,12 +755,12 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>

--- a/Back-End/output.xlsx
+++ b/Back-End/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>a</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>b</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -468,19 +468,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>1</v>
       </c>
@@ -512,19 +508,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>5</v>
@@ -538,22 +530,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>S4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>8</v>
       </c>
@@ -574,11 +560,7 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
@@ -606,24 +588,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>S6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>S7</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>11</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -650,23 +626,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>12</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -674,79 +644,15 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Back-End/output.xlsx
+++ b/Back-End/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -473,15 +488,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -499,6 +519,9 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -506,21 +529,18 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>S6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -528,20 +548,21 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S4</t>
+          <t>S8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>8</v>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +571,18 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S9</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -572,13 +592,20 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -586,21 +613,18 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>S7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -610,13 +634,16 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>S11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -624,19 +651,22 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -648,11 +678,71 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Back-End/output.xlsx
+++ b/Back-End/output.xlsx
@@ -441,47 +441,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>procedure</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>while</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>procedure</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -891,11 +891,7 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>S6</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -903,7 +899,11 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -967,11 +967,7 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>R1</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -979,7 +975,11 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>R1</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -1238,17 +1238,17 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -1409,12 +1409,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>R16</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>S18</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1588,17 +1588,17 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>S21</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1778,17 +1778,17 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>S14</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>S14</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -2103,12 +2103,12 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>R3</t>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>R15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>S18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2309,7 +2309,11 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>R5</t>
@@ -2345,11 +2349,7 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>S5</t>
@@ -2428,17 +2428,17 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>S31</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>S31</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -2774,17 +2774,17 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>S21</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -3015,39 +3015,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R27</t>
+          <t>S52</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>S44</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>R27</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -3141,7 +3141,11 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>R5</t>
@@ -3177,11 +3181,7 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>S5</t>
@@ -3339,7 +3339,11 @@
           <t>R11</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>R11</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>R11</t>
@@ -3375,11 +3379,7 @@
           <t>R11</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>R11</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -3917,11 +3917,7 @@
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -3929,7 +3925,11 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>R2</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -3993,11 +3993,7 @@
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>R20</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
@@ -4005,7 +4001,11 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>R20</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -4069,11 +4069,7 @@
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>R21</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -4081,7 +4077,11 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>R21</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -4145,11 +4145,7 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>R22</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -4157,7 +4153,11 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>R22</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -4221,11 +4221,7 @@
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>R23</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
@@ -4233,7 +4229,11 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>R23</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -4297,11 +4297,7 @@
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>R24</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -4309,7 +4305,11 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>R24</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -4373,11 +4373,7 @@
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>R25</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -4385,7 +4381,11 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>R25</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -4449,11 +4449,7 @@
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>R26</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -4461,7 +4457,11 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>R26</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -4712,17 +4712,17 @@
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>R56</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>R56</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -4810,17 +4810,17 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>S76</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>S76</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -5283,39 +5283,39 @@
           <t>S53</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>S93</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S94</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>S94</t>
-        </is>
-      </c>
+          <t>S95</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
@@ -5599,7 +5599,11 @@
           <t>R16</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>R16</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>R16</t>
@@ -5607,12 +5611,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>R16</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>S18</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5631,11 +5635,7 @@
           <t>R16</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>R16</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
@@ -5789,7 +5789,11 @@
           <t>R4</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>R4</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>R4</t>
@@ -5825,11 +5829,7 @@
           <t>R4</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>R4</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
@@ -5901,7 +5901,11 @@
           <t>R19</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>R19</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>R19</t>
@@ -5937,11 +5941,7 @@
           <t>R19</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>R19</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>R19</t>
@@ -6014,17 +6014,17 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>S112</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>S112</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -6302,17 +6302,17 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>S129</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>S129</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -6406,17 +6406,17 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -6612,17 +6612,17 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>R44</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>R44</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -6696,17 +6696,17 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>R45</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>R45</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -7116,17 +7116,17 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -7444,17 +7444,17 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -7553,11 +7553,7 @@
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>R54</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
@@ -7565,7 +7561,11 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>R54</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -7629,11 +7629,7 @@
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>R14</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
@@ -7641,7 +7637,11 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -7705,11 +7705,7 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>R58</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
@@ -7717,7 +7713,11 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>R58</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -7781,11 +7781,7 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>R61</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
@@ -7793,7 +7789,11 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>R61</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -7857,11 +7857,7 @@
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>R29</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
@@ -7869,7 +7865,11 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>R29</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -7934,17 +7934,17 @@
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>S149</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>S149</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -8012,17 +8012,17 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>S149</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>S149</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -8090,17 +8090,17 @@
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>S149</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>S149</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -8168,17 +8168,17 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>S149</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>S149</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -8962,17 +8962,17 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -9072,17 +9072,17 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>R56</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>R56</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -9170,17 +9170,17 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>S157</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>S157</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -9479,39 +9479,39 @@
           <t>S53</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>S93</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S94</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>S94</t>
-        </is>
-      </c>
+          <t>S95</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
@@ -9719,18 +9719,22 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>R3</t>
@@ -9747,11 +9751,7 @@
           <t>R3</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
@@ -9825,7 +9825,11 @@
           <t>R15</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>R15</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>R15</t>
@@ -9833,12 +9837,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>R15</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>S18</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -9857,11 +9861,7 @@
           <t>R15</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>R15</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
@@ -9935,7 +9935,11 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>R5</t>
@@ -9971,11 +9975,7 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>S5</t>
@@ -10057,7 +10057,11 @@
           <t>R10</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>R10</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>R10</t>
@@ -10089,11 +10093,7 @@
           <t>R10</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>R10</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
@@ -10161,11 +10161,7 @@
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>R28</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
@@ -10173,7 +10169,11 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>R28</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
@@ -10248,17 +10248,17 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>S112</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>S112</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -10339,11 +10339,7 @@
         </is>
       </c>
       <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>R38</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
@@ -10351,7 +10347,11 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>R38</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
@@ -10433,11 +10433,7 @@
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>R39</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
@@ -10445,7 +10441,11 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>R39</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
@@ -10525,11 +10525,7 @@
         </is>
       </c>
       <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>R41</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
@@ -10537,7 +10533,11 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>R41</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
@@ -10617,11 +10617,7 @@
         </is>
       </c>
       <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>R42</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
@@ -10629,7 +10625,11 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>R42</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
@@ -10710,17 +10710,17 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -10813,11 +10813,7 @@
         </is>
       </c>
       <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>R14</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
@@ -10825,7 +10821,11 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>R14</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
@@ -10905,11 +10905,7 @@
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>R9</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
@@ -10917,7 +10913,11 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>R9</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -11011,12 +11011,12 @@
           <t>R33</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
           <t>R33</t>
@@ -11104,17 +11104,17 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>S129</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>S129</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
@@ -11208,17 +11208,17 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>R48</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>R48</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
@@ -11300,17 +11300,17 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>R49</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>R49</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
@@ -11392,17 +11392,17 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>R50</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>R50</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
@@ -11484,17 +11484,17 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>R51</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>R51</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
@@ -11576,17 +11576,17 @@
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>R52</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>R52</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
@@ -11668,17 +11668,17 @@
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>R53</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>R53</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
@@ -11846,17 +11846,17 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>S129</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>S129</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
@@ -12308,17 +12308,17 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
@@ -12700,17 +12700,17 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
@@ -12792,17 +12792,17 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -12882,17 +12882,17 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>R46</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>R46</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
@@ -12966,17 +12966,17 @@
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>R47</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>R47</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -13136,17 +13136,17 @@
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
@@ -13598,17 +13598,17 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -14060,17 +14060,17 @@
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>S191</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>S191</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -14564,17 +14564,17 @@
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>S200</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>S200</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
@@ -14744,17 +14744,17 @@
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
@@ -15337,39 +15337,39 @@
           <t>S53</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>S213</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
-          <t>S215</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S214</t>
         </is>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>S214</t>
-        </is>
-      </c>
+          <t>S215</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr">
         <is>
@@ -15465,7 +15465,11 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>R5</t>
+        </is>
+      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>R5</t>
@@ -15501,11 +15505,7 @@
           <t>R5</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>R5</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>S5</t>
@@ -15659,11 +15659,7 @@
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>R36</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
@@ -15671,7 +15667,11 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>R36</t>
+        </is>
+      </c>
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
@@ -15744,17 +15744,17 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>S112</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>S112</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
@@ -15836,17 +15836,17 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>S112</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>S112</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
@@ -16007,39 +16007,39 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>R27</t>
+          <t>S52</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
           <t>S44</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>R27</t>
         </is>
       </c>
       <c r="L170" t="inlineStr"/>
@@ -16290,17 +16290,17 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>S129</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>S129</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
@@ -16382,17 +16382,17 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>S129</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>S129</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
@@ -16960,17 +16960,17 @@
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="inlineStr"/>
@@ -17052,17 +17052,17 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
@@ -17231,12 +17231,12 @@
           <t>R57</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr">
         <is>
           <t>R57</t>
@@ -17324,17 +17324,17 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>S191</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>S191</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr"/>
@@ -17514,17 +17514,17 @@
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>S191</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>S191</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr"/>
@@ -17976,17 +17976,17 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr"/>
@@ -18354,17 +18354,17 @@
       </c>
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>S200</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>S200</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
       <c r="M195" t="inlineStr"/>
@@ -18832,17 +18832,17 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
       <c r="M200" t="inlineStr"/>
@@ -19131,18 +19131,22 @@
           <t>R33</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr">
         <is>
           <t>R33</t>
@@ -19159,11 +19163,7 @@
           <t>R33</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
@@ -19994,17 +19994,17 @@
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
       <c r="M214" t="inlineStr"/>
@@ -20104,17 +20104,17 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>R56</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>R56</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
       <c r="M215" t="inlineStr"/>
@@ -20202,17 +20202,17 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>S31</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>S31</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
       <c r="M216" t="inlineStr"/>
@@ -20587,7 +20587,11 @@
           <t>R18</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>R18</t>
+        </is>
+      </c>
       <c r="D221" t="inlineStr">
         <is>
           <t>R18</t>
@@ -20619,11 +20623,7 @@
           <t>R18</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>R18</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr">
         <is>
@@ -20691,11 +20691,7 @@
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>R37</t>
-        </is>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
@@ -20703,7 +20699,11 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>R37</t>
+        </is>
+      </c>
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
@@ -20775,11 +20775,7 @@
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>R40</t>
-        </is>
-      </c>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
@@ -20787,7 +20783,11 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>R40</t>
+        </is>
+      </c>
       <c r="L223" t="inlineStr"/>
       <c r="M223" t="inlineStr"/>
       <c r="N223" t="inlineStr"/>
@@ -20867,11 +20867,7 @@
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>R43</t>
-        </is>
-      </c>
+      <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
@@ -20879,7 +20875,11 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>R43</t>
+        </is>
+      </c>
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr"/>
       <c r="N224" t="inlineStr"/>
@@ -20959,11 +20959,7 @@
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>R32</t>
-        </is>
-      </c>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
@@ -20971,7 +20967,11 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>R32</t>
+        </is>
+      </c>
       <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
       <c r="N225" t="inlineStr"/>
@@ -21577,39 +21577,39 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>R27</t>
+          <t>S52</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
           <t>S44</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr">
         <is>
-          <t>S46</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S45</t>
         </is>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>S46</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>R27</t>
         </is>
       </c>
       <c r="L232" t="inlineStr"/>
@@ -21860,17 +21860,17 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>S191</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>S191</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="inlineStr"/>
@@ -21952,17 +21952,17 @@
       </c>
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>S191</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>S191</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="inlineStr"/>
@@ -22206,17 +22206,17 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>S200</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>S200</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
       <c r="M239" t="inlineStr"/>
@@ -22298,17 +22298,17 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>S200</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>S200</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr"/>
@@ -22467,39 +22467,39 @@
           <t>S53</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
       <c r="D242" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
           <t>S93</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S94</t>
         </is>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr">
         <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>S94</t>
-        </is>
-      </c>
+          <t>S95</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
       <c r="M242" t="inlineStr">
         <is>
@@ -22599,18 +22599,22 @@
           <t>R57</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>R57</t>
+        </is>
+      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr">
         <is>
           <t>R57</t>
@@ -22627,11 +22631,7 @@
           <t>R57</t>
         </is>
       </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>R57</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
       <c r="M243" t="inlineStr"/>
       <c r="N243" t="inlineStr"/>
@@ -22702,17 +22702,17 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>S267</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>S267</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
       <c r="M244" t="inlineStr"/>
@@ -22882,17 +22882,17 @@
       </c>
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>S72</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>S72</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
       <c r="M246" t="inlineStr"/>
@@ -23299,7 +23299,11 @@
           <t>R17</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>R17</t>
+        </is>
+      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>R17</t>
@@ -23331,11 +23335,7 @@
           <t>R17</t>
         </is>
       </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>R17</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="inlineStr">
         <is>
@@ -23403,11 +23403,7 @@
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>R55</t>
-        </is>
-      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
@@ -23415,7 +23411,11 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>R55</t>
+        </is>
+      </c>
       <c r="L252" t="inlineStr"/>
       <c r="M252" t="inlineStr"/>
       <c r="N252" t="inlineStr"/>
@@ -24111,39 +24111,39 @@
           <t>S53</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
       <c r="D260" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
           <t>S93</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S94</t>
         </is>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr">
         <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>S94</t>
-        </is>
-      </c>
+          <t>S95</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
       <c r="M260" t="inlineStr">
         <is>
@@ -24326,17 +24326,17 @@
       </c>
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>S267</t>
+        </is>
+      </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>S267</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
       <c r="M262" t="inlineStr"/>
@@ -24788,17 +24788,17 @@
       </c>
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>S143</t>
+        </is>
+      </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>S143</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
       <c r="M267" t="inlineStr"/>
@@ -25079,18 +25079,22 @@
           <t>R33</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>R33</t>
+        </is>
+      </c>
       <c r="D270" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
         <is>
           <t>R33</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
         <is>
           <t>R33</t>
@@ -25107,11 +25111,7 @@
           <t>R33</t>
         </is>
       </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>R33</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
       <c r="M270" t="inlineStr">
         <is>
@@ -25422,17 +25422,17 @@
       </c>
       <c r="B274" t="inlineStr"/>
       <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>S267</t>
+        </is>
+      </c>
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>S267</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
       <c r="M274" t="inlineStr"/>
@@ -25514,17 +25514,17 @@
       </c>
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>S267</t>
+        </is>
+      </c>
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>S267</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
       <c r="M275" t="inlineStr"/>
@@ -25683,39 +25683,39 @@
           <t>S53</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
       <c r="D277" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
           <t>S213</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr">
         <is>
-          <t>S215</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S214</t>
         </is>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr">
         <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>S214</t>
-        </is>
-      </c>
+          <t>S215</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
       <c r="M277" t="inlineStr">
         <is>
@@ -25811,18 +25811,22 @@
           <t>R57</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>R57</t>
+        </is>
+      </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr">
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
         <is>
           <t>R57</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr">
         <is>
           <t>R57</t>
@@ -25839,11 +25843,7 @@
           <t>R57</t>
         </is>
       </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>R57</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr">
         <is>
@@ -26261,39 +26261,39 @@
           <t>S53</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>S52</t>
+        </is>
+      </c>
       <c r="D283" t="inlineStr">
         <is>
+          <t>S50</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
           <t>S213</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>S52</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr">
         <is>
-          <t>S215</t>
+          <t>S51</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>S51</t>
+          <t>S214</t>
         </is>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr">
         <is>
-          <t>S50</t>
-        </is>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>S214</t>
-        </is>
-      </c>
+          <t>S215</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
       <c r="M283" t="inlineStr">
         <is>
